--- a/wti模型3.0/data_input_auto/WTI连1-连4月差拟合残差-PADD3炼厂压裂裂解.xlsx
+++ b/wti模型3.0/data_input_auto/WTI连1-连4月差拟合残差-PADD3炼厂压裂裂解.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3095"/>
+  <dimension ref="A1:C3097"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29223,7 +29223,7 @@
         <v>45954</v>
       </c>
       <c r="B3088" t="n">
-        <v>0.1934</v>
+        <v>0.0834</v>
       </c>
       <c r="C3088" t="n">
         <v>21231</v>
@@ -29231,25 +29231,25 @@
     </row>
     <row r="3089">
       <c r="A3089" s="2" t="n">
-        <v>45961</v>
-      </c>
-      <c r="B3089" t="inlineStr"/>
-      <c r="C3089" t="n">
-        <v>21231</v>
-      </c>
+        <v>45957</v>
+      </c>
+      <c r="B3089" t="n">
+        <v>-0.5152</v>
+      </c>
+      <c r="C3089" t="inlineStr"/>
     </row>
     <row r="3090">
       <c r="A3090" s="2" t="n">
-        <v>45968</v>
-      </c>
-      <c r="B3090" t="inlineStr"/>
-      <c r="C3090" t="n">
-        <v>21231</v>
-      </c>
+        <v>45958</v>
+      </c>
+      <c r="B3090" t="n">
+        <v>-0.7919</v>
+      </c>
+      <c r="C3090" t="inlineStr"/>
     </row>
     <row r="3091">
       <c r="A3091" s="2" t="n">
-        <v>45975</v>
+        <v>45961</v>
       </c>
       <c r="B3091" t="inlineStr"/>
       <c r="C3091" t="n">
@@ -29258,7 +29258,7 @@
     </row>
     <row r="3092">
       <c r="A3092" s="2" t="n">
-        <v>45982</v>
+        <v>45968</v>
       </c>
       <c r="B3092" t="inlineStr"/>
       <c r="C3092" t="n">
@@ -29267,7 +29267,7 @@
     </row>
     <row r="3093">
       <c r="A3093" s="2" t="n">
-        <v>45989</v>
+        <v>45975</v>
       </c>
       <c r="B3093" t="inlineStr"/>
       <c r="C3093" t="n">
@@ -29276,7 +29276,7 @@
     </row>
     <row r="3094">
       <c r="A3094" s="2" t="n">
-        <v>45996</v>
+        <v>45982</v>
       </c>
       <c r="B3094" t="inlineStr"/>
       <c r="C3094" t="n">
@@ -29285,10 +29285,28 @@
     </row>
     <row r="3095">
       <c r="A3095" s="2" t="n">
-        <v>46003</v>
+        <v>45989</v>
       </c>
       <c r="B3095" t="inlineStr"/>
       <c r="C3095" t="n">
+        <v>21231</v>
+      </c>
+    </row>
+    <row r="3096">
+      <c r="A3096" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B3096" t="inlineStr"/>
+      <c r="C3096" t="n">
+        <v>21231</v>
+      </c>
+    </row>
+    <row r="3097">
+      <c r="A3097" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="B3097" t="inlineStr"/>
+      <c r="C3097" t="n">
         <v>21231</v>
       </c>
     </row>
